--- a/extra_timetable.xlsx
+++ b/extra_timetable.xlsx
@@ -518,47 +518,47 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                     </t>
+          <t xml:space="preserve"> NA                                                                                                                                   </t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                     </t>
+          <t xml:space="preserve"> NA                                                                                                                                   </t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                     </t>
+          <t xml:space="preserve"> NA                                                                                                                                   </t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                                                   </t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                                                 </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R                                                                 </t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R                                                               </t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (HED) by                                                                                                                            </t>
+          <t xml:space="preserve"> () (HED) by                                                                                                                          </t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                          </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                        </t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR KIRUBANAND V B, DR LOKESHWARAN, DR AMRUTHA, DR AROKIA PAUL RAJAN R, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR AMRUTHA, DR KIRUBANAND V B, DR RAMAMURTHY B, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR KIRUBANAND V B, DR LOKESHWARAN, DR AMRUTHA, DR AROKIA PAUL RAJAN R, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR AMRUTHA, DR KIRUBANAND V B, DR RAMAMURTHY B, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SANDEEP J, DR SAGAYA AURELIA P, DR ROHINI V, DR CHANTI, DR SHAMINE</t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SHAMINE, DR CHANTI, DR SAGAYA AURELIA P, DR SANDEEP J</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SANDEEP J, DR SAGAYA AURELIA P, DR ROHINI V, DR CHANTI, DR SHAMINE</t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SHAMINE, DR CHANTI, DR SAGAYA AURELIA P, DR SANDEEP J</t>
         </is>
       </c>
     </row>
@@ -674,47 +674,47 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                             </t>
+          <t xml:space="preserve"> NA                                                                                                                                 </t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                             </t>
+          <t xml:space="preserve"> NA                                                                                                                                 </t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                             </t>
+          <t xml:space="preserve"> NA                                                                                                                                 </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (MDC) by                                                                                                                                    </t>
+          <t xml:space="preserve"> () (MDC) by                                                                                                                        </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                                                           </t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                                               </t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Library) by lib                                                                                                                            </t>
+          <t xml:space="preserve"> () (Library) by lib                                                                                                                </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                  </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                      </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R, DR FABIOLA HAZEL POHRMEN, DR CHANTI, DR SHAMINE, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR SHAMINE, DR CHANTI, DR NISMON RIO R, DR AROKIA PAUL RAJAN R, DR SANDEEP J</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R, DR FABIOLA HAZEL POHRMEN, DR CHANTI, DR SHAMINE, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR SHAMINE, DR CHANTI, DR NISMON RIO R, DR AROKIA PAUL RAJAN R, DR SANDEEP J</t>
         </is>
       </c>
     </row>
@@ -783,27 +783,27 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                              </t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR KIRUBANAND V B</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (BCA101) (MATHEMATICS) by XYZ                                   </t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR KIRUBANAND V B</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                                                             </t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                                                             </t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                              </t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
@@ -994,47 +994,47 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                              </t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                              </t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                              </t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (MDC) by                                                                                                                      </t>
+          <t xml:space="preserve"> () (MDC) by                                                                                                                                     </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (MDC) by                                                                                                                      </t>
+          <t xml:space="preserve"> () (MDC) by                                                                                                                                     </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SARAVANAN KN, DR LOKESHWARAN                                            </t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SARAVANAN KN, DR LOKESHWARAN                                                           </t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                    </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                   </t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NEWBEGIN, DR AROKIA PAUL RAJAN R, DR SMERA, DR AMRUTHA, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR NEWBEGIN, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NEWBEGIN, DR AROKIA PAUL RAJAN R, DR SMERA, DR AMRUTHA, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR NEWBEGIN, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SANGEETHA GOVINDA, DR SAGAYA AURELIA P, DR ROHINI V, DR LOKESHWARAN, DR SARAVANAN KN</t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SANGEETHA GOVINDA, DR LOKESHWARAN, DR SAGAYA AURELIA P, DR SARAVANAN KN</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SANGEETHA GOVINDA, DR SAGAYA AURELIA P, DR ROHINI V, DR LOKESHWARAN, DR SARAVANAN KN</t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SANGEETHA GOVINDA, DR LOKESHWARAN, DR SAGAYA AURELIA P, DR SARAVANAN KN</t>
         </is>
       </c>
     </row>
@@ -1150,47 +1150,47 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                                             </t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                                             </t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                                             </t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                          </t>
+          <t xml:space="preserve"> () (English) by                                                                                                                                </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                          </t>
+          <t xml:space="preserve"> () (English) by                                                                                                                                </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AROKIA PAUL RAJAN R                                                            </t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AROKIA PAUL RAJAN R                                                                  </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                            </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                  </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR ROHINI V, DR SHAMINE, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR CHANTI, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR HUBERT SHANTHAN</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR ROHINI V, DR SHAMINE, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR CHANTI, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR HUBERT SHANTHAN</t>
         </is>
       </c>
     </row>
@@ -1207,27 +1207,27 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                            </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (BCA101) (MATHEMATICS) by TEMP</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA101) (MATHEMATICS) by TEMP</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                           </t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                           </t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                            </t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1470,47 +1470,47 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR NISMON RIO R, DR VIJAY ARPUTHARAJ, DR SARAVANAN KN, DR SARAVANAKUMAR K, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR NISMON RIO R, DR MOHANA PRIYA T, DR VIJAY ARPUTHARAJ, DR SMERA, DR SARAVANAN KN</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR NISMON RIO R, DR VIJAY ARPUTHARAJ, DR SARAVANAN KN, DR SARAVANAKUMAR K, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR NISMON RIO R, DR MOHANA PRIYA T, DR VIJAY ARPUTHARAJ, DR SMERA, DR SARAVANAN KN</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                    </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                          </t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA108-3) (OPERATING SYSTEM) by DR ROHINI V                                                                                     </t>
+          <t xml:space="preserve"> (BCA108-3) (OPERATING SYSTEM) by DR ROHINI V                                                                           </t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA A SI                                                                                      </t>
+          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA A SI                                                                            </t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (activity) by                                                                                                                 </t>
+          <t xml:space="preserve"> () (activity) by                                                                                                       </t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                     </t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                     </t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                     </t>
         </is>
       </c>
     </row>
@@ -1574,47 +1574,47 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SANDEEP J, DR CYNTHIA, DR NISMON RIO R, DR MANASA, DR FABIOLA HAZEL POHRMEN</t>
+          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR FABIOLA HAZEL POHRMEN, DR MANASA, DR CYNTHIA, DR SANDEEP J</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SANDEEP J, DR CYNTHIA, DR NISMON RIO R, DR MANASA, DR FABIOLA HAZEL POHRMEN</t>
+          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR FABIOLA HAZEL POHRMEN, DR MANASA, DR CYNTHIA, DR SANDEEP J</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                     </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                </t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA A SI                                                                       </t>
+          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA A SI                                                                  </t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Accounting) by acc                                                                                            </t>
+          <t xml:space="preserve"> () (Accounting) by acc                                                                                       </t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Accounting) by acc                                                                                            </t>
+          <t xml:space="preserve"> () (Accounting) by acc                                                                                       </t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                </t>
+          <t xml:space="preserve"> NA                                                                                                           </t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                </t>
+          <t xml:space="preserve"> NA                                                                                                           </t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                </t>
+          <t xml:space="preserve"> NA                                                                                                           </t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,33 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                           </t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR MANASA</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA A SI  </t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                                          </t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR MANASA</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                           </t>
-        </is>
-      </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                           </t>
+          <t xml:space="preserve"> NA
+ NA                                       </t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
@@ -1909,12 +1910,12 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SANDEEP J, DR SAGAYA AURELIA P, DR VINEETHA KR, DR SHAMINE, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR VINEETHA KR, DR MOHANA PRIYA T, DR SAGAYA AURELIA P, DR SANDEEP J</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SANDEEP J, DR SAGAYA AURELIA P, DR VINEETHA KR, DR SHAMINE, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR VINEETHA KR, DR MOHANA PRIYA T, DR SAGAYA AURELIA P, DR SANDEEP J</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
@@ -1946,47 +1947,47 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR RESMI KR, DR SANDEEP J, DR KIRUBANAND V B, DR HUBERT SHANTHAN, DR SARAVANAKUMAR K</t>
+          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR HUBERT SHANTHAN, DR FABIOLA HAZEL POHRMEN, DR SARAVANAKUMAR K, DR SMERA, DR RESMI KR</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR RESMI KR, DR SANDEEP J, DR KIRUBANAND V B, DR HUBERT SHANTHAN, DR SARAVANAKUMAR K</t>
+          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR HUBERT SHANTHAN, DR FABIOLA HAZEL POHRMEN, DR SARAVANAKUMAR K, DR SMERA, DR RESMI KR</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                            </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                               </t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (language) by                                                                                                         </t>
+          <t xml:space="preserve"> () (language) by                                                                                                            </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA B SI                                                                              </t>
+          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA B SI                                                                                 </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Library) by lib                                                                                                      </t>
+          <t xml:space="preserve"> () (Library) by lib                                                                                                         </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                          </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                          </t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                          </t>
         </is>
       </c>
     </row>
@@ -2055,32 +2056,33 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                </t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR VINEETHA KR</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA B SI       </t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                                               </t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR VINEETHA KR</t>
         </is>
       </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                </t>
-        </is>
-      </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA
+ NA                                            </t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr">
@@ -2269,12 +2271,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR SANGEETHA GOVINDA, DR RAINA, DR ROHINI V, DR KIRUBANAND V B, DR VIJAY ARPUTHARAJ                                                            </t>
+          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR ROHINI V, DR RAINA, DR KIRUBANAND V B, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ                                                            </t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR SANGEETHA GOVINDA, DR RAINA, DR ROHINI V, DR KIRUBANAND V B, DR VIJAY ARPUTHARAJ                                                            </t>
+          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR ROHINI V, DR RAINA, DR KIRUBANAND V B, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ                                                            </t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2286,14 +2288,14 @@
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR NEWBEGIN, DR SANDEEP J, DR RAINA, DR SHAMINE, DR SARAVANAKUMAR K</t>
+ () () by DR SHAMINE, DR RAINA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR SANDEEP J</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR NEWBEGIN, DR SANDEEP J, DR RAINA, DR SHAMINE, DR SARAVANAKUMAR K</t>
+ () () by DR SHAMINE, DR RAINA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR SANDEEP J</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2487,48 +2489,48 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                            </t>
+          <t xml:space="preserve"> NA                                                                                                                              </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                                                                                              </t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (BCA541B) (GRAPHICS AND ANIMATION) by DR VIJAY ARPUTHARAJ
- (BCA542) (BUSINESS INTELLIGENCE) by DR NEWBEGIN                    </t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR NISMON RIO R, DR ROHINI V, DR VINEETHA KR</t>
+ (BCA542) (BUSINESS INTELLIGENCE) by DR NEWBEGIN                      </t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR NISMON RIO R, DR ROHINI V, DR VINEETHA KR</t>
+          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR VINEETHA KR, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR CYNTHIA, DR HUBERT SHANTHAN</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                                      </t>
+          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR VINEETHA KR, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR CYNTHIA, DR HUBERT SHANTHAN</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                                      </t>
+          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                                        </t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                            </t>
+          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                                        </t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                            </t>
+          <t xml:space="preserve"> NA                                                                                                                              </t>
         </is>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                            </t>
+          <t xml:space="preserve"> NA                                                                                                                              </t>
         </is>
       </c>
     </row>
@@ -2652,52 +2654,52 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                           </t>
+          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                                     </t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                           </t>
+          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                                     </t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                    </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                              </t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR SANGEETHA GOVINDA, DR SANDEEP J, DR VIJAY ARPUTHARAJ, DR SHAMINE, DR SMERA</t>
+ () () by DR SHAMINE, DR SARAVANAKUMAR K, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ, DR SANDEEP J</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR SANGEETHA GOVINDA, DR SANDEEP J, DR VIJAY ARPUTHARAJ, DR SHAMINE, DR SMERA</t>
+ () () by DR SHAMINE, DR SARAVANAKUMAR K, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ, DR SANDEEP J</t>
         </is>
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA543) (MULTIMEDIA APPLICATIONS) by DR AMRUTHA
- (BCA544) (CYBER SECURITY) by DR CYNTHIA                                                                                        </t>
+ (BCA544) (CYBER SECURITY) by DR CYNTHIA                                                                                                  </t>
         </is>
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                         </t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                         </t>
         </is>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                         </t>
         </is>
       </c>
     </row>
@@ -2709,50 +2711,50 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR BEAULAH SOUNDARABAI P, DR HUBERT SHANTHAN, DR LOKESHWARAN, DR SHAMINE, DR SARAVANAKUMAR K</t>
+          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR SHAMINE, DR SARAVANAKUMAR K, DR RAMAMURTHY B, DR SMERA, DR HUBERT SHANTHAN</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR BEAULAH SOUNDARABAI P, DR HUBERT SHANTHAN, DR LOKESHWARAN, DR SHAMINE, DR SARAVANAKUMAR K</t>
+          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR SHAMINE, DR SARAVANAKUMAR K, DR RAMAMURTHY B, DR SMERA, DR HUBERT SHANTHAN</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                       </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                        </t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
- (BCA542) (Lab - MCA Lab by DR NEWBEGIN)                           </t>
+ (BCA542) (Lab - MCA Lab by DR NEWBEGIN)            </t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
- (BCA542) (Lab - MCA Lab by DR NEWBEGIN)                           </t>
+ (BCA542) (Lab - MCA Lab by DR NEWBEGIN)            </t>
         </is>
       </c>
       <c r="G64" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA543) (MULTIMEDIA APPLICATIONS) by DR AMRUTHA
- (BCA544) (CYBER SECURITY) by DR CYNTHIA                           </t>
+ (BCA544) (CYBER SECURITY) by DR CYNTHIA            </t>
         </is>
       </c>
       <c r="H64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                                   </t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                                   </t>
         </is>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                                   </t>
         </is>
       </c>
     </row>
@@ -2930,33 +2932,33 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                                                                        </t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (BCA541B) (GRAPHICS AND ANIMATION) by DR VIJAY ARPUTHARAJ
  (BCA542) (BUSINESS INTELLIGENCE) by DR NEWBEGIN</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR RESMI KR, DR CYNTHIA, DR MANASA, DR CHANTI, DR HUBERT SHANTHAN       </t>
-        </is>
-      </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR RESMI KR, DR CYNTHIA, DR MANASA, DR CHANTI, DR HUBERT SHANTHAN       </t>
+          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR ROHINI V, DR MANASA, DR NISMON RIO R, DR SARAVANAN KN, DR RESMI KR   </t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR ROHINI V, DR MANASA, DR NISMON RIO R, DR SARAVANAN KN, DR RESMI KR   </t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR RAINA                                                                  </t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="H68" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR RAINA                                                                  </t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                                                                        </t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr">
@@ -3194,47 +3196,47 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                                                    </t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                                                    </t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                                                    </t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR MANJUNATHA HIREMATH                                  </t>
+          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR MANJUNATHA HIREMATH                                     </t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                </t>
+          <t xml:space="preserve">Free                                                                                                                                   </t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (activity) by                                                                                                                   </t>
+          <t xml:space="preserve"> () (activity) by                                                                                                                      </t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                      </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                         </t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR NEWBEGIN, DR KIRUBANAND V B, DR FABIOLA HAZEL POHRMEN, DR SMERA, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR SARAVANAKUMAR K, DR NEWBEGIN</t>
         </is>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR NEWBEGIN, DR KIRUBANAND V B, DR FABIOLA HAZEL POHRMEN, DR SMERA, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR SARAVANAKUMAR K, DR NEWBEGIN</t>
         </is>
       </c>
     </row>
@@ -3298,47 +3300,47 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                                       </t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                                       </t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                                       </t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                             </t>
+          <t xml:space="preserve"> () (English) by                                                                                                                          </t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                             </t>
+          <t xml:space="preserve"> () (English) by                                                                                                                          </t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN                                                                    </t>
+          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN                                                                 </t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                               </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                            </t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR HUBERT SHANTHAN, DR CHANTI, DR AMRUTHA, DR MANJUNATHA HIREMATH</t>
+          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR ROHINI V, DR MANJUNATHA HIREMATH, DR NISMON RIO R, DR SMERA, DR SREEJA</t>
         </is>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR HUBERT SHANTHAN, DR CHANTI, DR AMRUTHA, DR MANJUNATHA HIREMATH</t>
+          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR ROHINI V, DR MANJUNATHA HIREMATH, DR NISMON RIO R, DR SMERA, DR SREEJA</t>
         </is>
       </c>
     </row>
@@ -3350,47 +3352,47 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                </t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC161-1) (WEB APPLICATION DEVELOPMENT) by DR LOKESHWARAN, DR SHAMINE, DR AROKIA PAUL RAJAN R, DR SARAVANAN KN, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC161-1) (WEB APPLICATION DEVELOPMENT) by DR LOKESHWARAN, DR SHAMINE, DR AROKIA PAUL RAJAN R, DR SARAVANAN KN, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (CSC161-1) (WEB APPLICATION DEVELOPMENT) by DR AMRUTHA, DR CHANTI, DR MOHANA PRIYA T, DR RAMAMURTHY B, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                               </t>
+          <t xml:space="preserve"> (CSC161-1) (WEB APPLICATION DEVELOPMENT) by DR AMRUTHA, DR CHANTI, DR MOHANA PRIYA T, DR RAMAMURTHY B, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                               </t>
+          <t xml:space="preserve">Free                                                                                                                          </t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                </t>
+          <t xml:space="preserve">Free                                                                                                                          </t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                </t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                </t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                </t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
     </row>
@@ -3514,12 +3516,12 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR SREEJA, DR VINEETHA KR, DR MANASA, DR MANJUNATHA HIREMATH, DR MANASA</t>
+          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR MANJUNATHA HIREMATH, DR VINEETHA KR, DR SREEJA, DR MANASA, DR MANASA</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR SREEJA, DR VINEETHA KR, DR MANASA, DR MANJUNATHA HIREMATH, DR MANASA</t>
+          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR MANJUNATHA HIREMATH, DR VINEETHA KR, DR SREEJA, DR MANASA, DR MANASA</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -3670,47 +3672,47 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR NEWBEGIN, DR RAINA, DR SREEJA, DR SMERA, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR RAINA, DR KIRUBANAND V B, DR NEWBEGIN, DR RAMAMURTHY B, DR SREEJA</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR NEWBEGIN, DR RAINA, DR SREEJA, DR SMERA, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR RAINA, DR KIRUBANAND V B, DR NEWBEGIN, DR RAMAMURTHY B, DR SREEJA</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                          </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                   </t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CM SI                                                          </t>
+          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CM SI                                                                   </t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                    </t>
+          <t xml:space="preserve">Free                                                                                                             </t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Library) by lib                                                                                    </t>
+          <t xml:space="preserve"> () (Library) by lib                                                                                             </t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                     </t>
+          <t xml:space="preserve"> NA                                                                                                              </t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                     </t>
+          <t xml:space="preserve"> NA                                                                                                              </t>
         </is>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                     </t>
+          <t xml:space="preserve"> NA                                                                                                              </t>
         </is>
       </c>
     </row>
@@ -3779,32 +3781,33 @@
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA     </t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="D92" s="3" t="inlineStr">
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="E92" s="3" t="inlineStr">
+      <c r="F92" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="F92" s="3" t="inlineStr">
+      <c r="G92" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="G92" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA     </t>
-        </is>
-      </c>
       <c r="H92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA     </t>
+          <t xml:space="preserve"> NA
+ NA </t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr">
@@ -3953,12 +3956,12 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR RESMI KR, DR RAINA, DR BEAULAH SOUNDARABAI P, DR KIRUBANAND V B, DR FABIOLA HAZEL POHRMEN</t>
+          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR BEAULAH SOUNDARABAI P, DR RESMI KR</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR RESMI KR, DR RAINA, DR BEAULAH SOUNDARABAI P, DR KIRUBANAND V B, DR FABIOLA HAZEL POHRMEN</t>
+          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR BEAULAH SOUNDARABAI P, DR RESMI KR</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
@@ -4198,47 +4201,47 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                                      </t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                                                                      </t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                              </t>
+          <t xml:space="preserve">Free                                                                                                                                                     </t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR LOKESHWARAN, DR SARAVANAKUMAR K, DR RAMAMURTHY B, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve">Free                                                                                                                                                     </t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR LOKESHWARAN, DR SARAVANAKUMAR K, DR RAMAMURTHY B, DR MOHANA PRIYA T</t>
+          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SARAVANAKUMAR K, DR MOHANA PRIYA T, DR SREEJA, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                               </t>
+          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SARAVANAKUMAR K, DR MOHANA PRIYA T, DR SREEJA, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
         </is>
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                                      </t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                                      </t>
         </is>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                               </t>
+          <t xml:space="preserve"> NA                                                                                                                                                      </t>
         </is>
       </c>
     </row>
@@ -4466,47 +4469,47 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR RAINA, DR LOKESHWARAN, DR BEAULAH SOUNDARABAI P, DR RAINA, DR RAINA</t>
+          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR BEAULAH SOUNDARABAI P, DR RAMAMURTHY B, DR LOKESHWARAN, DR RAMAMURTHY B, DR RAMAMURTHY B</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR RAINA, DR LOKESHWARAN, DR BEAULAH SOUNDARABAI P, DR RAINA, DR RAINA</t>
+          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR BEAULAH SOUNDARABAI P, DR RAMAMURTHY B, DR LOKESHWARAN, DR RAMAMURTHY B, DR RAMAMURTHY B</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                      </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                           </t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CS SI                                                                      </t>
+          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CS SI                                                                                           </t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (language) by                                                                                                   </t>
+          <t xml:space="preserve"> () (language) by                                                                                                                        </t>
         </is>
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (activity) by                                                                                                   </t>
+          <t xml:space="preserve"> () (activity) by                                                                                                                        </t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                                                      </t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                                                      </t>
         </is>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                                                      </t>
         </is>
       </c>
     </row>
@@ -4627,32 +4630,33 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA     </t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="E116" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
+      <c r="F116" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="F116" s="3" t="inlineStr">
+      <c r="G116" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="G116" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA     </t>
-        </is>
-      </c>
       <c r="H116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA     </t>
+          <t xml:space="preserve"> NA
+ NA </t>
         </is>
       </c>
       <c r="I116" s="3" t="inlineStr">
@@ -4786,53 +4790,53 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                        </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                          </t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                        </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                          </t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                        </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                          </t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA                                                                                                                                                                                                                                  </t>
+          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                       </t>
+          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                         </t>
         </is>
       </c>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                       </t>
+          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                         </t>
         </is>
       </c>
       <c r="H123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                                                                                                             </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                                                                                                               </t>
         </is>
       </c>
       <c r="I123" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (CSC542B) (Lab - BCA Lab by DR HUBERT SHANTHAN)
  (CSC542D) (Lab - MCA Lab by DR CHANTI)
- () () by DR RAINA, DR SAGAYA AURELIA P, DR ROHINI V, DR HUBERT SHANTHAN, DR SARAVANAKUMAR K
- () () by DR NEWBEGIN, DR BEAULAH SOUNDARABAI P, DR CHANTI, DR SMERA, DR RAMAMURTHY B</t>
+ () () by DR ROHINI V, DR RAINA, DR SMERA, DR SAGAYA AURELIA P, DR HUBERT SHANTHAN
+ () () by DR CHANTI, DR SARAVANAKUMAR K, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR NEWBEGIN</t>
         </is>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (CSC542B) (Lab - BCA Lab by DR HUBERT SHANTHAN)
  (CSC542D) (Lab - MCA Lab by DR CHANTI)
- () () by DR RAINA, DR SAGAYA AURELIA P, DR ROHINI V, DR HUBERT SHANTHAN, DR SARAVANAKUMAR K
- () () by DR NEWBEGIN, DR BEAULAH SOUNDARABAI P, DR CHANTI, DR SMERA, DR RAMAMURTHY B</t>
+ () () by DR ROHINI V, DR RAINA, DR SMERA, DR SAGAYA AURELIA P, DR HUBERT SHANTHAN
+ () () by DR CHANTI, DR SARAVANAKUMAR K, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR NEWBEGIN</t>
         </is>
       </c>
     </row>
@@ -4897,48 +4901,48 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                                    </t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                                    </t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                                    </t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (CSC542B) (WEB TECHNOLOGY) by DR HUBERT SHANTHAN
- (CSC542D) (GRAPHICS AND ANIMATION) by DR CHANTI            </t>
+ (CSC542D) (GRAPHICS AND ANIMATION) by DR CHANTI     </t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR RESMI KR, DR CYNTHIA, DR HUBERT SHANTHAN, DR AMRUTHA, DR MANJUNATHA HIREMATH</t>
+          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA, DR ROHINI V, DR MANJUNATHA HIREMATH, DR CYNTHIA, DR RESMI KR</t>
         </is>
       </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR RESMI KR, DR CYNTHIA, DR HUBERT SHANTHAN, DR AMRUTHA, DR MANJUNATHA HIREMATH</t>
+          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA, DR ROHINI V, DR MANJUNATHA HIREMATH, DR CYNTHIA, DR RESMI KR</t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                         </t>
         </is>
       </c>
       <c r="I125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                          </t>
+          <t xml:space="preserve">Free                                                                                                   </t>
         </is>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                          </t>
+          <t xml:space="preserve">Free                                                                                                   </t>
         </is>
       </c>
     </row>
@@ -5060,27 +5064,27 @@
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA     </t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="E128" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr">
+      <c r="F128" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="F128" s="3" t="inlineStr">
+      <c r="G128" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
-        </is>
-      </c>
-      <c r="G128" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA     </t>
         </is>
       </c>
       <c r="H128" s="3" t="inlineStr">

--- a/extra_timetable.xlsx
+++ b/extra_timetable.xlsx
@@ -518,47 +518,47 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                   </t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                   </t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                   </t>
+          <t xml:space="preserve"> NA                                                                                                                           </t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                                                 </t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                                         </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R                                                               </t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R                                                       </t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (HED) by                                                                                                                          </t>
+          <t xml:space="preserve"> () (HED) by                                                                                                                  </t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                        </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                </t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR AMRUTHA, DR KIRUBANAND V B, DR RAMAMURTHY B, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (BCA261-1) (Lab - BSc Lab by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R, DR KIRUBANAND V B)</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR AMRUTHA, DR KIRUBANAND V B, DR RAMAMURTHY B, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (BCA261-1) (Lab - BSc Lab by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R, DR KIRUBANAND V B)</t>
         </is>
       </c>
     </row>
@@ -622,47 +622,47 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                         </t>
+          <t xml:space="preserve"> NA                                                                                                 </t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                         </t>
+          <t xml:space="preserve"> NA                                                                                                 </t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                         </t>
+          <t xml:space="preserve"> NA                                                                                                 </t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R                                                     </t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR NISMON RIO R                             </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR KIRUBANAND V B                                                           </t>
+          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR KIRUBANAND V B                                   </t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (activity) by                                                                                                           </t>
+          <t xml:space="preserve"> () (activity) by                                                                                   </t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                              </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                      </t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SHAMINE, DR CHANTI, DR SAGAYA AURELIA P, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA102-1) (Lab - BCA Lab by DR CHANTI, DR ROHINI V, DR SANDEEP J, DR SHAMINE, DR SAGAYA AURELIA P)</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SHAMINE, DR CHANTI, DR SAGAYA AURELIA P, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA102-1) (Lab - BCA Lab by DR CHANTI, DR ROHINI V, DR SANDEEP J, DR SHAMINE, DR SAGAYA AURELIA P)</t>
         </is>
       </c>
     </row>
@@ -674,47 +674,47 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                          </t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                          </t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                 </t>
+          <t xml:space="preserve"> NA                                                                                                          </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (MDC) by                                                                                                                        </t>
+          <t xml:space="preserve"> () (MDC) by                                                                                                 </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                                               </t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SAGAYA AURELIA P, DR CHANTI                        </t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Library) by lib                                                                                                                </t>
+          <t xml:space="preserve"> () (Library) by lib                                                                                         </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                      </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                               </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR SHAMINE, DR CHANTI, DR NISMON RIO R, DR AROKIA PAUL RAJAN R, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA203-1) (Lab - BCA Lab by DR CHANTI, DR FABIOLA HAZEL POHRMEN, DR NISMON RIO R, DR SANDEEP J, DR SHAMINE)</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR SHAMINE, DR CHANTI, DR NISMON RIO R, DR AROKIA PAUL RAJAN R, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA203-1) (Lab - BCA Lab by DR CHANTI, DR FABIOLA HAZEL POHRMEN, DR NISMON RIO R, DR SANDEEP J, DR SHAMINE)</t>
         </is>
       </c>
     </row>
@@ -994,47 +994,47 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                         </t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                         </t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                         </t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (MDC) by                                                                                                                                     </t>
+          <t xml:space="preserve"> () (MDC) by                                                                                                </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (MDC) by                                                                                                                                     </t>
+          <t xml:space="preserve"> () (MDC) by                                                                                                </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SARAVANAN KN, DR LOKESHWARAN                                                           </t>
+          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR SARAVANAN KN, DR LOKESHWARAN                      </t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                   </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                              </t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR NEWBEGIN, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (BCA203-1) (Lab - MCA Lab by DR AMRUTHA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR SMERA, DR AROKIA PAUL RAJAN R)</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR NEWBEGIN, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (BCA203-1) (Lab - MCA Lab by DR AMRUTHA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR SMERA, DR AROKIA PAUL RAJAN R)</t>
         </is>
       </c>
     </row>
@@ -1098,47 +1098,47 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                                                   </t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                                                   </t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                                                   </t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (MDC) by                                                                                                                                  </t>
+          <t xml:space="preserve"> () (MDC) by                                                                                                          </t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AROKIA PAUL RAJAN R                                                                </t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AROKIA PAUL RAJAN R                                        </t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Library) by lib                                                                                                                          </t>
+          <t xml:space="preserve"> () (Library) by lib                                                                                                  </t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                        </t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SANGEETHA GOVINDA, DR LOKESHWARAN, DR SAGAYA AURELIA P, DR SARAVANAN KN</t>
+          <t xml:space="preserve"> (BCA102-1) (Lab - MCA Lab by DR SARAVANAN KN, DR LOKESHWARAN, DR ROHINI V, DR SANGEETHA GOVINDA, DR SAGAYA AURELIA P)</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA102-1) (OBJECT ORIENTED PROGRAMMING USING C++) by DR ROHINI V, DR SANGEETHA GOVINDA, DR LOKESHWARAN, DR SAGAYA AURELIA P, DR SARAVANAN KN</t>
+          <t xml:space="preserve"> (BCA102-1) (Lab - MCA Lab by DR SARAVANAN KN, DR LOKESHWARAN, DR ROHINI V, DR SANGEETHA GOVINDA, DR SAGAYA AURELIA P)</t>
         </is>
       </c>
     </row>
@@ -1150,47 +1150,47 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                             </t>
+          <t xml:space="preserve"> NA                                                                                                                            </t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                             </t>
+          <t xml:space="preserve"> NA                                                                                                                            </t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                             </t>
+          <t xml:space="preserve"> NA                                                                                                                            </t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                                </t>
+          <t xml:space="preserve"> () (English) by                                                                                                               </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                                </t>
+          <t xml:space="preserve"> () (English) by                                                                                                               </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AROKIA PAUL RAJAN R                                                                  </t>
+          <t xml:space="preserve"> (BCA203-1) (PRINCIPLES OF SOFTWARE DEVELOPMENT – 1) by DR AROKIA PAUL RAJAN R                                                 </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                  </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                 </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR CHANTI, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR HUBERT SHANTHAN</t>
+          <t xml:space="preserve"> (BCA261-1) (Lab - BCA Lab by DR CHANTI, DR FABIOLA HAZEL POHRMEN, DR SANGEETHA GOVINDA, DR HUBERT SHANTHAN, DR MOHANA PRIYA T)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA261-1) (INTRODUCTION TO WEB TECHNOLOGY) by DR CHANTI, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR HUBERT SHANTHAN</t>
+          <t xml:space="preserve"> (BCA261-1) (Lab - BCA Lab by DR CHANTI, DR FABIOLA HAZEL POHRMEN, DR SANGEETHA GOVINDA, DR HUBERT SHANTHAN, DR MOHANA PRIYA T)</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR NISMON RIO R, DR MOHANA PRIYA T, DR VIJAY ARPUTHARAJ, DR SMERA, DR SARAVANAN KN</t>
+          <t xml:space="preserve"> (BCA263) (Lab - BCA Lab by DR SARAVANAN KN, DR NISMON RIO R, DR MOHANA PRIYA T, DR KIRUBANAND V B, DR VIJAY ARPUTHARAJ)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR NISMON RIO R, DR MOHANA PRIYA T, DR VIJAY ARPUTHARAJ, DR SMERA, DR SARAVANAN KN</t>
+          <t xml:space="preserve"> (BCA263) (Lab - BCA Lab by DR SARAVANAN KN, DR NISMON RIO R, DR MOHANA PRIYA T, DR KIRUBANAND V B, DR VIJAY ARPUTHARAJ)</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1574,47 +1574,47 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR FABIOLA HAZEL POHRMEN, DR MANASA, DR CYNTHIA, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA310-3) (Lab - BCA Lab by DR NISMON RIO R, DR CYNTHIA, DR SANDEEP J, DR SHAMINE, DR MANASA)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR FABIOLA HAZEL POHRMEN, DR MANASA, DR CYNTHIA, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA310-3) (Lab - BCA Lab by DR NISMON RIO R, DR CYNTHIA, DR SANDEEP J, DR SHAMINE, DR MANASA)</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                 </t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA A SI                                                                  </t>
+          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA A SI                                                   </t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Accounting) by acc                                                                                       </t>
+          <t xml:space="preserve"> () (Accounting) by acc                                                                        </t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Accounting) by acc                                                                                       </t>
+          <t xml:space="preserve"> () (Accounting) by acc                                                                        </t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                            </t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                            </t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                           </t>
+          <t xml:space="preserve"> NA                                                                                            </t>
         </is>
       </c>
     </row>
@@ -1895,47 +1895,47 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR RESMI KR, DR HUBERT SHANTHAN                                                </t>
+          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR RESMI KR, DR HUBERT SHANTHAN                                 </t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR RESMI KR, DR HUBERT SHANTHAN                                                </t>
+          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR RESMI KR, DR HUBERT SHANTHAN                                 </t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                       </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                        </t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR VINEETHA KR, DR MOHANA PRIYA T, DR SAGAYA AURELIA P, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA310-3) (Lab - MCA Lab by DR VINEETHA KR, DR CYNTHIA, DR SANDEEP J, DR MOHANA PRIYA T, DR SHAMINE)</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA310-3) (MOBILE APPLICATIONS) by DR SHAMINE, DR VINEETHA KR, DR MOHANA PRIYA T, DR SAGAYA AURELIA P, DR SANDEEP J</t>
+          <t xml:space="preserve"> (BCA310-3) (Lab - MCA Lab by DR VINEETHA KR, DR CYNTHIA, DR SANDEEP J, DR MOHANA PRIYA T, DR SHAMINE)</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (activity) by                                                                                                    </t>
+          <t xml:space="preserve"> () (activity) by                                                                                     </t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                                   </t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                                   </t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                                   </t>
         </is>
       </c>
     </row>
@@ -1947,47 +1947,47 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR HUBERT SHANTHAN, DR FABIOLA HAZEL POHRMEN, DR SARAVANAKUMAR K, DR SMERA, DR RESMI KR</t>
+          <t xml:space="preserve"> (BCA263) (Lab - BCA Lab by DR HUBERT SHANTHAN, DR RAINA, DR AROKIA PAUL RAJAN R, DR RESMI KR, DR KIRUBANAND V B)</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA263) (INTRODUCTION TO PYTHON) by DR HUBERT SHANTHAN, DR FABIOLA HAZEL POHRMEN, DR SARAVANAKUMAR K, DR SMERA, DR RESMI KR</t>
+          <t xml:space="preserve"> (BCA263) (Lab - BCA Lab by DR HUBERT SHANTHAN, DR RAINA, DR AROKIA PAUL RAJAN R, DR RESMI KR, DR KIRUBANAND V B)</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                               </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                   </t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (language) by                                                                                                            </t>
+          <t xml:space="preserve"> () (language) by                                                                                                </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA B SI                                                                                 </t>
+          <t xml:space="preserve"> (BCA484-3) (SUMMER INTERNSHIP) by 3BCA B SI                                                                     </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Library) by lib                                                                                                         </t>
+          <t xml:space="preserve"> () (Library) by lib                                                                                             </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                              </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                              </t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                              </t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR ROHINI V, DR RAINA, DR KIRUBANAND V B, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ                                                            </t>
+          <t xml:space="preserve"> (BCA581) (Lab - MCA Lab by DR BEAULAH SOUNDARABAI P, DR ROHINI V, DR SANGEETHA GOVINDA, DR KIRUBANAND V B, DR VIJAY ARPUTHARAJ)                                        </t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR ROHINI V, DR RAINA, DR KIRUBANAND V B, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ                                                            </t>
+          <t xml:space="preserve"> (BCA581) (Lab - MCA Lab by DR BEAULAH SOUNDARABAI P, DR ROHINI V, DR SANGEETHA GOVINDA, DR KIRUBANAND V B, DR VIJAY ARPUTHARAJ)                                        </t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2288,14 +2288,14 @@
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR SHAMINE, DR RAINA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR SANDEEP J</t>
+ () () by DR SARAVANAKUMAR K, DR NEWBEGIN, DR SANDEEP J, DR RAINA, DR SHAMINE</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR SHAMINE, DR RAINA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR SANDEEP J</t>
+ () () by DR SARAVANAKUMAR K, DR NEWBEGIN, DR SANDEEP J, DR RAINA, DR SHAMINE</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2489,48 +2489,48 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                           </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                           </t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (GRAPHICS AND ANIMATION) by DR VIJAY ARPUTHARAJ
- (BCA542) (BUSINESS INTELLIGENCE) by DR NEWBEGIN                      </t>
+ (BCA542) (BUSINESS INTELLIGENCE) by DR NEWBEGIN   </t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR VINEETHA KR, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR CYNTHIA, DR HUBERT SHANTHAN</t>
+          <t xml:space="preserve"> (BCA531) (Lab - BCA Lab by DR VINEETHA KR, DR CYNTHIA, DR SANGEETHA GOVINDA, DR HUBERT SHANTHAN, DR RESMI KR)</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR VINEETHA KR, DR SANGEETHA GOVINDA, DR BEAULAH SOUNDARABAI P, DR CYNTHIA, DR HUBERT SHANTHAN</t>
+          <t xml:space="preserve"> (BCA531) (Lab - BCA Lab by DR VINEETHA KR, DR CYNTHIA, DR SANGEETHA GOVINDA, DR HUBERT SHANTHAN, DR RESMI KR)</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                                        </t>
+          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                     </t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                                        </t>
+          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR SMERA                                                                     </t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                           </t>
         </is>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                           </t>
         </is>
       </c>
     </row>
@@ -2654,52 +2654,52 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                                     </t>
+          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                               </t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                                     </t>
+          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR SHAMINE)                                                                                                                                               </t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                              </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                        </t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR SHAMINE, DR SARAVANAKUMAR K, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ, DR SANDEEP J</t>
+ () () by DR SMERA, DR SARAVANAKUMAR K, DR SANGEETHA GOVINDA, DR RAINA, DR VIJAY ARPUTHARAJ</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (Lab - BCA Lab by DR VIJAY ARPUTHARAJ)
  (BCA542) (Lab - MCA Lab by DR NEWBEGIN)
- () () by DR SHAMINE, DR SARAVANAKUMAR K, DR SANGEETHA GOVINDA, DR VIJAY ARPUTHARAJ, DR SANDEEP J</t>
+ () () by DR SMERA, DR SARAVANAKUMAR K, DR SANGEETHA GOVINDA, DR RAINA, DR VIJAY ARPUTHARAJ</t>
         </is>
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA543) (MULTIMEDIA APPLICATIONS) by DR AMRUTHA
- (BCA544) (CYBER SECURITY) by DR CYNTHIA                                                                                                  </t>
+ (BCA544) (CYBER SECURITY) by DR CYNTHIA                                                                                            </t>
         </is>
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                         </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                         </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                         </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                   </t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR SHAMINE, DR SARAVANAKUMAR K, DR RAMAMURTHY B, DR SMERA, DR HUBERT SHANTHAN</t>
+          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR RAMAMURTHY B, DR LOKESHWARAN, DR RAINA, DR HUBERT SHANTHAN, DR SHAMINE)</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA581) (PROJECT-I) by DR SHAMINE, DR SARAVANAKUMAR K, DR RAMAMURTHY B, DR SMERA, DR HUBERT SHANTHAN</t>
+          <t xml:space="preserve"> (BCA581) (Lab - BSc Lab by DR RAMAMURTHY B, DR LOKESHWARAN, DR RAINA, DR HUBERT SHANTHAN, DR SHAMINE)</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2927,48 +2927,48 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                        </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                        </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (BCA541B) (GRAPHICS AND ANIMATION) by DR VIJAY ARPUTHARAJ
- (BCA542) (BUSINESS INTELLIGENCE) by DR NEWBEGIN</t>
+ (BCA542) (BUSINESS INTELLIGENCE) by DR NEWBEGIN    </t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR ROHINI V, DR MANASA, DR NISMON RIO R, DR SARAVANAN KN, DR RESMI KR   </t>
+          <t xml:space="preserve"> (BCA531) (Lab - MCA Lab by DR BEAULAH SOUNDARABAI P, DR SARAVANAN KN, DR ROHINI V, DR NISMON RIO R, DR MANASA)</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA531) (MOBILE APPLICATIONS) by DR ROHINI V, DR MANASA, DR NISMON RIO R, DR SARAVANAN KN, DR RESMI KR   </t>
+          <t xml:space="preserve"> (BCA531) (Lab - MCA Lab by DR BEAULAH SOUNDARABAI P, DR SARAVANAN KN, DR ROHINI V, DR NISMON RIO R, DR MANASA)</t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR RAINA                                                                  </t>
+          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR RAINA                                                                      </t>
         </is>
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR RAINA                                                                  </t>
+          <t xml:space="preserve"> (BCA532) (COMPUTER NETWORKS) by DR RAINA                                                                      </t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                        </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                        </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
     </row>
@@ -3196,47 +3196,47 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                    </t>
+          <t xml:space="preserve"> NA                                                                                                             </t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                    </t>
+          <t xml:space="preserve"> NA                                                                                                             </t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                    </t>
+          <t xml:space="preserve"> NA                                                                                                             </t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR MANJUNATHA HIREMATH                                     </t>
+          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SREEJA, DR MANJUNATHA HIREMATH              </t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                   </t>
+          <t xml:space="preserve">Free                                                                                                            </t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (activity) by                                                                                                                      </t>
+          <t xml:space="preserve"> () (activity) by                                                                                               </t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                         </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                  </t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR SARAVANAKUMAR K, DR NEWBEGIN</t>
+          <t xml:space="preserve"> (CSC162-1) (Lab - MCA Lab by DR SARAVANAKUMAR K, DR SMERA, DR RAMAMURTHY B, DR FABIOLA HAZEL POHRMEN, DR RAINA)</t>
         </is>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR SARAVANAKUMAR K, DR NEWBEGIN</t>
+          <t xml:space="preserve"> (CSC162-1) (Lab - MCA Lab by DR SARAVANAKUMAR K, DR SMERA, DR RAMAMURTHY B, DR FABIOLA HAZEL POHRMEN, DR RAINA)</t>
         </is>
       </c>
     </row>
@@ -3300,47 +3300,47 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                </t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                </t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                                                </t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                          </t>
+          <t xml:space="preserve"> () (English) by                                                                                                   </t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (English) by                                                                                                                          </t>
+          <t xml:space="preserve"> () (English) by                                                                                                   </t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN                                                                 </t>
+          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN                                          </t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                            </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                     </t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR ROHINI V, DR MANJUNATHA HIREMATH, DR NISMON RIO R, DR SMERA, DR SREEJA</t>
+          <t xml:space="preserve"> (CSC101-1) (Lab - MCA Lab by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR MANJUNATHA HIREMATH, DR ROHINI V, DR SREEJA)</t>
         </is>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR ROHINI V, DR MANJUNATHA HIREMATH, DR NISMON RIO R, DR SMERA, DR SREEJA</t>
+          <t xml:space="preserve"> (CSC101-1) (Lab - MCA Lab by DR AMRUTHA, DR BEAULAH SOUNDARABAI P, DR MANJUNATHA HIREMATH, DR ROHINI V, DR SREEJA)</t>
         </is>
       </c>
     </row>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC161-1) (WEB APPLICATION DEVELOPMENT) by DR AMRUTHA, DR CHANTI, DR MOHANA PRIYA T, DR RAMAMURTHY B, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (CSC161-1) (Lab - BSc Lab by DR CHANTI, DR RAMAMURTHY B, DR FABIOLA HAZEL POHRMEN, DR AROKIA PAUL RAJAN R, DR MOHANA PRIYA T)</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC161-1) (WEB APPLICATION DEVELOPMENT) by DR AMRUTHA, DR CHANTI, DR MOHANA PRIYA T, DR RAMAMURTHY B, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (CSC161-1) (Lab - BSc Lab by DR CHANTI, DR RAMAMURTHY B, DR FABIOLA HAZEL POHRMEN, DR AROKIA PAUL RAJAN R, DR MOHANA PRIYA T)</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -3516,47 +3516,47 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR MANJUNATHA HIREMATH, DR VINEETHA KR, DR SREEJA, DR MANASA, DR MANASA</t>
+          <t xml:space="preserve"> (CSC201-3C) (Lab - BCA Lab by DR MANJUNATHA HIREMATH, DR SREEJA, DR VINEETHA KR, DR MANASA)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR MANJUNATHA HIREMATH, DR VINEETHA KR, DR SREEJA, DR MANASA, DR MANASA</t>
+          <t xml:space="preserve"> (CSC201-3C) (Lab - BCA Lab by DR MANJUNATHA HIREMATH, DR SREEJA, DR VINEETHA KR, DR MANASA)</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                            </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                              </t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR RAMAMURTHY B                                              </t>
+          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR RAMAMURTHY B                                </t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CM SI                                                            </t>
+          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CM SI                                              </t>
         </is>
       </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (HED) by                                                                                              </t>
+          <t xml:space="preserve"> () (HED) by                                                                                </t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                         </t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                         </t>
         </is>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                       </t>
+          <t xml:space="preserve"> NA                                                                                         </t>
         </is>
       </c>
     </row>
@@ -3672,47 +3672,47 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR RAINA, DR KIRUBANAND V B, DR NEWBEGIN, DR RAMAMURTHY B, DR SREEJA</t>
+          <t xml:space="preserve"> (CSC262-3C) (Lab - MCA Lab by DR SMERA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR RAMAMURTHY B, DR SREEJA)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC262-3C) (DATA ANALYSIS USING PYTHON) by DR RAINA, DR KIRUBANAND V B, DR NEWBEGIN, DR RAMAMURTHY B, DR SREEJA</t>
+          <t xml:space="preserve"> (CSC262-3C) (Lab - MCA Lab by DR SMERA, DR SARAVANAKUMAR K, DR NEWBEGIN, DR RAMAMURTHY B, DR SREEJA)</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                   </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                       </t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CM SI                                                                   </t>
+          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CM SI                                                       </t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                             </t>
+          <t xml:space="preserve">Free                                                                                                 </t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (Library) by lib                                                                                             </t>
+          <t xml:space="preserve"> () (Library) by lib                                                                                 </t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                  </t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                  </t>
         </is>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                              </t>
+          <t xml:space="preserve"> NA                                                                                                  </t>
         </is>
       </c>
     </row>
@@ -3941,47 +3941,47 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                     </t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                     </t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                     </t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR BEAULAH SOUNDARABAI P, DR RESMI KR</t>
+          <t xml:space="preserve"> (CSC162-1) (Lab - BSc Lab by DR BEAULAH SOUNDARABAI P, DR FABIOLA HAZEL POHRMEN, DR SANDEEP J, DR RESMI KR, DR SHAMINE)</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC162-1) (DATA ANALYSIS USING SPREADSHEET) by DR FABIOLA HAZEL POHRMEN, DR RAINA, DR KIRUBANAND V B, DR BEAULAH SOUNDARABAI P, DR RESMI KR</t>
+          <t xml:space="preserve"> (CSC162-1) (Lab - BSc Lab by DR BEAULAH SOUNDARABAI P, DR FABIOLA HAZEL POHRMEN, DR SANDEEP J, DR RESMI KR, DR SHAMINE)</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (HED) by                                                                                                                                 </t>
+          <t xml:space="preserve"> () (HED) by                                                                                                            </t>
         </is>
       </c>
       <c r="H99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                               </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                          </t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                         </t>
+          <t xml:space="preserve">Free                                                                                                                    </t>
         </is>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                         </t>
+          <t xml:space="preserve">Free                                                                                                                    </t>
         </is>
       </c>
     </row>
@@ -4201,47 +4201,47 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                                     </t>
+          <t xml:space="preserve">Free                                                                                                           </t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                                     </t>
+          <t xml:space="preserve">Free                                                                                                           </t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SARAVANAKUMAR K, DR MOHANA PRIYA T, DR SREEJA, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (CSC101-1) (Lab - BSc Lab by DR RAMAMURTHY B, DR LOKESHWARAN, DR SREEJA, DR MOHANA PRIYA T, DR KIRUBANAND V B)</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC101-1) (DIGITAL COMPUTER FUNDAMENTALS AND C PROGRAMMING) by DR SARAVANAKUMAR K, DR MOHANA PRIYA T, DR SREEJA, DR LOKESHWARAN, DR AROKIA PAUL RAJAN R</t>
+          <t xml:space="preserve"> (CSC101-1) (Lab - BSc Lab by DR RAMAMURTHY B, DR LOKESHWARAN, DR SREEJA, DR MOHANA PRIYA T, DR KIRUBANAND V B)</t>
         </is>
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                                            </t>
         </is>
       </c>
     </row>
@@ -4417,47 +4417,47 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR VINEETHA KR, DR RESMI KR, DR MANASA, DR SARAVANAN KN, DR MANASA</t>
+          <t xml:space="preserve"> (CSC201-3C) (Lab - BCA Lab by DR SARAVANAN KN, DR RESMI KR, DR VINEETHA KR, DR MANASA)</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC201-3C) (JAVA PROGRAMMING) by DR VINEETHA KR, DR RESMI KR, DR MANASA, DR SARAVANAN KN, DR MANASA</t>
+          <t xml:space="preserve"> (CSC201-3C) (Lab - BCA Lab by DR SARAVANAN KN, DR RESMI KR, DR VINEETHA KR, DR MANASA)</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                       </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                         </t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR BEAULAH SOUNDARABAI P                               </t>
+          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR BEAULAH SOUNDARABAI P                 </t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CS SI                                                       </t>
+          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CS SI                                         </t>
         </is>
       </c>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                 </t>
+          <t xml:space="preserve">Free                                                                                   </t>
         </is>
       </c>
       <c r="H112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                    </t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                    </t>
         </is>
       </c>
       <c r="J112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                  </t>
+          <t xml:space="preserve"> NA                                                                                    </t>
         </is>
       </c>
     </row>
@@ -4469,47 +4469,47 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR BEAULAH SOUNDARABAI P, DR RAMAMURTHY B, DR LOKESHWARAN, DR RAMAMURTHY B, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (CSC261-3C) (Lab - MCA Lab by DR LOKESHWARAN, DR BEAULAH SOUNDARABAI P, DR NEWBEGIN)</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC261-3C) (WEB APPLICATION DEVELOPMENT) by DR BEAULAH SOUNDARABAI P, DR RAMAMURTHY B, DR LOKESHWARAN, DR RAMAMURTHY B, DR RAMAMURTHY B</t>
+          <t xml:space="preserve"> (CSC261-3C) (Lab - MCA Lab by DR LOKESHWARAN, DR BEAULAH SOUNDARABAI P, DR NEWBEGIN)</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                           </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                       </t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CS SI                                                                                           </t>
+          <t xml:space="preserve"> (Not Mentioned) (SUMMER INTERNSHIP) by 3CS SI                                       </t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (language) by                                                                                                                        </t>
+          <t xml:space="preserve"> () (language) by                                                                    </t>
         </is>
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (activity) by                                                                                                                        </t>
+          <t xml:space="preserve"> () (activity) by                                                                    </t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                  </t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                  </t>
         </is>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                      </t>
+          <t xml:space="preserve"> NA                                                                                  </t>
         </is>
       </c>
     </row>
@@ -4790,53 +4790,53 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                 </t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                 </t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                          </t>
+          <t xml:space="preserve"> NA                                                                                                                                                                                                                                                                 </t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA                                                                                                                                                                                                                           </t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                         </t>
+          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                </t>
         </is>
       </c>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                         </t>
+          <t xml:space="preserve">Free                                                                                                                                                                                                                                                                </t>
         </is>
       </c>
       <c r="H123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                                                                                                               </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                                                                                                                                                                      </t>
         </is>
       </c>
       <c r="I123" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (CSC542B) (Lab - BCA Lab by DR HUBERT SHANTHAN)
  (CSC542D) (Lab - MCA Lab by DR CHANTI)
- () () by DR ROHINI V, DR RAINA, DR SMERA, DR SAGAYA AURELIA P, DR HUBERT SHANTHAN
- () () by DR CHANTI, DR SARAVANAKUMAR K, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR NEWBEGIN</t>
+ () () by DR RAMAMURTHY B, DR ROHINI V, DR RAINA, DR HUBERT SHANTHAN, DR SAGAYA AURELIA P
+ () () by DR SARAVANAKUMAR K, DR NEWBEGIN, DR SMERA, DR CHANTI, DR MOHANA PRIYA T</t>
         </is>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (CSC542B) (Lab - BCA Lab by DR HUBERT SHANTHAN)
  (CSC542D) (Lab - MCA Lab by DR CHANTI)
- () () by DR ROHINI V, DR RAINA, DR SMERA, DR SAGAYA AURELIA P, DR HUBERT SHANTHAN
- () () by DR CHANTI, DR SARAVANAKUMAR K, DR BEAULAH SOUNDARABAI P, DR MOHANA PRIYA T, DR NEWBEGIN</t>
+ () () by DR RAMAMURTHY B, DR ROHINI V, DR RAINA, DR HUBERT SHANTHAN, DR SAGAYA AURELIA P
+ () () by DR SARAVANAKUMAR K, DR NEWBEGIN, DR SMERA, DR CHANTI, DR MOHANA PRIYA T</t>
         </is>
       </c>
     </row>
@@ -4901,48 +4901,48 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                    </t>
+          <t xml:space="preserve"> NA                                                                                                                       </t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                    </t>
+          <t xml:space="preserve"> NA                                                                                                                       </t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                    </t>
+          <t xml:space="preserve"> NA                                                                                                                       </t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (CSC542B) (WEB TECHNOLOGY) by DR HUBERT SHANTHAN
- (CSC542D) (GRAPHICS AND ANIMATION) by DR CHANTI     </t>
+ (CSC542D) (GRAPHICS AND ANIMATION) by DR CHANTI                        </t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA, DR ROHINI V, DR MANJUNATHA HIREMATH, DR CYNTHIA, DR RESMI KR</t>
+          <t xml:space="preserve"> (CSC541A) (Lab - BSc Lab by DR AMRUTHA, DR MANJUNATHA HIREMATH, DR ROHINI V, DR AROKIA PAUL RAJAN R, DR SAGAYA AURELIA P)</t>
         </is>
       </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (CSC541A) (DATA ANALYTICS) by DR AMRUTHA, DR ROHINI V, DR MANJUNATHA HIREMATH, DR CYNTHIA, DR RESMI KR</t>
+          <t xml:space="preserve"> (CSC541A) (Lab - BSc Lab by DR AMRUTHA, DR MANJUNATHA HIREMATH, DR ROHINI V, DR AROKIA PAUL RAJAN R, DR SAGAYA AURELIA P)</t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> () (LUNCH) by                                                                                         </t>
+          <t xml:space="preserve"> () (LUNCH) by                                                                                                            </t>
         </is>
       </c>
       <c r="I125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                   </t>
+          <t xml:space="preserve">Free                                                                                                                      </t>
         </is>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                   </t>
+          <t xml:space="preserve">Free                                                                                                                      </t>
         </is>
       </c>
     </row>
